--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27126"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="37" documentId="11_0D1F40DA42D4308E8830E1843AA8E7EF06BD8DC1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B73A358A-3AE3-411C-982F-93264AA1D264}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A42EA-8B32-44C6-AE6F-A390273FC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Folder</t>
   </si>
@@ -73,13 +78,43 @@
   </si>
   <si>
     <t>Scenario_tool.py</t>
+  </si>
+  <si>
+    <t>To read in parameters, primarily from config.json (but default parameters can be read from config_Edsizes.json and config_Edtypes.json if not supplied)</t>
+  </si>
+  <si>
+    <t>To provide model parameters</t>
+  </si>
+  <si>
+    <t>Functions are as follows:
+parse_config_acuity - Checks for errors on acuity percentages in config file
+parse_config_simtype - Checks if sim_parameters (daily number of patients, numbers of clinicans, maximum number of seats) has errors in config file
+parse_config_Sim_Parameters - Checks if several other sim_parameters have errors in config file
+get_EDtype_parameters - Return acuity percentages and various other sim parameters. 
+get_EDsize_parameters - Return ED size parameters
+get_target_time - Return target time, which affects time for decision to admit
+parse_bed_occupancy - Get bed time, which is time after decision to admit to actually get a bed.
+get_doctor_times - Get doctor times 
+get_diagnostic_percentages - Get diagnostic percentages
+-read_parameters - Read in input data using above functions.</t>
+  </si>
+  <si>
+    <t>Max_Waiting_Times - Max waiting time of patient before leaving  - i.e. their patience
+Prob_Admission - Is probability is admitted or dicharged</t>
+  </si>
+  <si>
+    <t>Do we want to have patient patience?
+Opening hours on rooms (SDEC has these).
+Numbers of doctors available doesn't depend on time of day
+Might want surge capacity beds because strict capacity constraints on certain rooms is likely unrealistic
+Many parameters are largely static (do not change depending on time of day) - need to think what we would want to model</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,9 +151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,20 +494,20 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="61.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -489,7 +527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -499,8 +537,14 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -510,8 +554,17 @@
       <c r="C3" t="s">
         <v>8</v>
       </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -522,7 +575,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -539,6 +592,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6303f13c-72cc-47f0-aeed-d46f93b29717">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C3297AEF9452489C7FCE3B7D0A0240" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bacd8e428934135053ba814caf68e07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6303f13c-72cc-47f0-aeed-d46f93b29717" xmlns:ns3="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61018ef9cd4e089a50c2ac4547d3a346" ns2:_="" ns3:_="">
     <xsd:import namespace="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
@@ -787,34 +860,40 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6303f13c-72cc-47f0-aeed-d46f93b29717">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3221171-99EA-4B89-8ABF-936A32F977DD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d"/>
+    <ds:schemaRef ds:uri="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3221171-99EA-4B89-8ABF-936A32F977DD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
+    <ds:schemaRef ds:uri="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophie.hodges\PycharmProjects\NHP-flow-modelling\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F59A42EA-8B32-44C6-AE6F-A390273FC887}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2A2F1-6D41-46EA-8815-3B4C340416D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29190" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
   <si>
     <t>Folder</t>
   </si>
@@ -108,6 +108,12 @@
 Numbers of doctors available doesn't depend on time of day
 Might want surge capacity beds because strict capacity constraints on certain rooms is likely unrealistic
 Many parameters are largely static (do not change depending on time of day) - need to think what we would want to model</t>
+  </si>
+  <si>
+    <t>simulation_flask</t>
+  </si>
+  <si>
+    <t>Sophie - not started</t>
   </si>
 </sst>
 </file>
@@ -491,23 +497,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6328125" customWidth="1"/>
+    <col min="6" max="6" width="61.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -527,7 +533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -544,7 +550,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -564,7 +570,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -575,7 +581,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -584,6 +590,17 @@
       </c>
       <c r="C5" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -592,15 +609,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" xsi:nil="true"/>
@@ -609,6 +617,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,20 +878,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d"/>
     <ds:schemaRef ds:uri="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sophie.hodges\PycharmProjects\NHP-flow-modelling\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED2A2F1-6D41-46EA-8815-3B4C340416D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7589CE-8CC7-408C-9B14-AAB854CB9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>Folder</t>
   </si>
@@ -114,6 +114,25 @@
   </si>
   <si>
     <t>Sophie - not started</t>
+  </si>
+  <si>
+    <t>patient_distribution_inputs.py</t>
+  </si>
+  <si>
+    <t>To compute both the rate at which patients arrive at UEC and their maximum waiting times</t>
+  </si>
+  <si>
+    <t>Suggestion would be to move these two functions to Inputs.py and delete this small script</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suggest to remove config_EDtypes.json use in get_EDtype_parameters.
+Similarly, suggest to remove config_EDsizes.json use from get_EDsize_parameters.
+Might want to make diagnostics containers with resource limits. 
+Have better labels on some of the tree-splitting percentages. </t>
+  </si>
+  <si>
+    <t>get_nhpp - Function to determine rate at which patients arrive at UEC
+get_max_waiting_time - Get maximum waiting time i.e patience.</t>
   </si>
 </sst>
 </file>
@@ -497,23 +516,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6328125" customWidth="1"/>
-    <col min="6" max="6" width="61.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.6640625" customWidth="1"/>
+    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,7 +552,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="304.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -549,8 +568,11 @@
       <c r="E2" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="F2" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -570,7 +592,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -581,7 +603,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -592,7 +614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -601,6 +623,26 @@
       </c>
       <c r="C6" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -609,26 +651,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6303f13c-72cc-47f0-aeed-d46f93b29717">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C3297AEF9452489C7FCE3B7D0A0240" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bacd8e428934135053ba814caf68e07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6303f13c-72cc-47f0-aeed-d46f93b29717" xmlns:ns3="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61018ef9cd4e089a50c2ac4547d3a346" ns2:_="" ns3:_="">
     <xsd:import namespace="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
@@ -877,26 +899,27 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6303f13c-72cc-47f0-aeed-d46f93b29717">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d"/>
-    <ds:schemaRef ds:uri="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3221171-99EA-4B89-8ABF-936A32F977DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -913,4 +936,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d"/>
+    <ds:schemaRef ds:uri="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB7589CE-8CC7-408C-9B14-AAB854CB9812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542E402-FA66-4F70-B82F-33C6A18B9CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
   <si>
     <t>Folder</t>
   </si>
@@ -133,6 +133,86 @@
   <si>
     <t>get_nhpp - Function to determine rate at which patients arrive at UEC
 get_max_waiting_time - Get maximum waiting time i.e patience.</t>
+  </si>
+  <si>
+    <t>Joe- Done</t>
+  </si>
+  <si>
+    <t>Legacy_Model_Documents</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Process mining</t>
+  </si>
+  <si>
+    <t>Process_mapping.R</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Analyse_MC_Tool_Data</t>
+  </si>
+  <si>
+    <t>config_Edsizes.json and config_Edtypes.json</t>
+  </si>
+  <si>
+    <t>Various .png plots</t>
+  </si>
+  <si>
+    <t>simulation_flaskED.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Handover document
+UEC_sim_parameters_assumptions_v1.xlsx
+Readme
+Requirements.txt
+_init_.py
+</t>
+  </si>
+  <si>
+    <t>analysis_functions.py</t>
+  </si>
+  <si>
+    <t>animation_function.py</t>
+  </si>
+  <si>
+    <t>Suggest comment out visusalition from code and ignore</t>
+  </si>
+  <si>
+    <t>Class_ED.py</t>
+  </si>
+  <si>
+    <t>individual_patient_functions.py</t>
+  </si>
+  <si>
+    <t>json_functions.py</t>
+  </si>
+  <si>
+    <t>Worth reviewing if can remove from simulation (since we are to discard visualisation)</t>
+  </si>
+  <si>
+    <t>plotting_functions.py</t>
+  </si>
+  <si>
+    <t>plotting_helper_functions.py</t>
+  </si>
+  <si>
+    <t>produce_PDF.py</t>
+  </si>
+  <si>
+    <t>Worth reviewing if can remove from simulation (since we are only interested in plots)</t>
+  </si>
+  <si>
+    <t>sim_visualisation.py</t>
+  </si>
+  <si>
+    <t>Worth commenting out visualisation and ignoring this script</t>
+  </si>
+  <si>
+    <t>Joe- Suggest Ignore</t>
   </si>
 </sst>
 </file>
@@ -516,16 +596,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="42.6640625" customWidth="1"/>
@@ -560,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>14</v>
@@ -580,7 +660,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -633,7 +713,7 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>22</v>
@@ -643,6 +723,151 @@
       </c>
       <c r="F7" s="2" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -651,6 +876,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C3297AEF9452489C7FCE3B7D0A0240" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bacd8e428934135053ba814caf68e07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6303f13c-72cc-47f0-aeed-d46f93b29717" xmlns:ns3="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61018ef9cd4e089a50c2ac4547d3a346" ns2:_="" ns3:_="">
     <xsd:import namespace="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
@@ -899,15 +1133,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -920,6 +1145,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3221171-99EA-4B89-8ABF-936A32F977DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -938,14 +1171,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
   <ds:schemaRefs>

--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3542E402-FA66-4F70-B82F-33C6A18B9CD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA672BC-0748-4E83-97A1-7BD157EE861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
   <si>
     <t>Folder</t>
   </si>
@@ -213,6 +213,27 @@
   </si>
   <si>
     <t>Joe- Suggest Ignore</t>
+  </si>
+  <si>
+    <t>Script for performing process mining on model output data. This is useful for validating modelling pathway and for understanding bottlenecks in model</t>
+  </si>
+  <si>
+    <t>There's a whole host of graphs produced in this script, both for process maps and for general EA. 
+Think it would be worth using this as the basis for all outputs and going away from other png files, below.</t>
+  </si>
+  <si>
+    <t>Reads in distribution_outputs.csv  data from deterministic simulations, only.
+Is run after running model 
+Reads event log data</t>
+  </si>
+  <si>
+    <t>Analyse Monte-Carlo data</t>
+  </si>
+  <si>
+    <t>Reads in monte_carlo_table.csv (simple data on discharge time and admission time) and computes  statistics across runs looking at variability of 4 hr percentages.</t>
+  </si>
+  <si>
+    <t>Might want to expand script to not only look at 4 hr percentages, but a range of other metrics. Suggest adjusting monte_carlo_table to take full event logs, as in distribution_outputs.csv not only discharge and admission times.</t>
   </si>
 </sst>
 </file>
@@ -598,8 +619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,7 +809,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -799,7 +820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -810,7 +831,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -821,7 +842,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -832,7 +853,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -842,8 +863,17 @@
       <c r="C21" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -853,8 +883,17 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -862,7 +901,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -876,15 +915,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010003C3297AEF9452489C7FCE3B7D0A0240" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1bacd8e428934135053ba814caf68e07">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6303f13c-72cc-47f0-aeed-d46f93b29717" xmlns:ns3="6fbcc8e4-81ed-40b2-9b21-aa98bc8e658d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61018ef9cd4e089a50c2ac4547d3a346" ns2:_="" ns3:_="">
     <xsd:import namespace="6303f13c-72cc-47f0-aeed-d46f93b29717"/>
@@ -1133,6 +1163,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1145,14 +1184,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3221171-99EA-4B89-8ABF-936A32F977DD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1171,6 +1202,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5B872B4-34D4-4644-A22A-DC2C35E291A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52A22D81-4F1F-4B11-9342-4D7DA029D33D}">
   <ds:schemaRefs>

--- a/docs/Code_Structure.xlsx
+++ b/docs/Code_Structure.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joseph.Lillington\PycharmProjects\NHP-flow-modelling\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://csucloudservices-my.sharepoint.com/personal/santosh_kumar_mlcsu_nhs_uk/Documents/Desktop/NHP/NHP-flow-modelling/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA672BC-0748-4E83-97A1-7BD157EE861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:1_{2DA672BC-0748-4E83-97A1-7BD157EE861E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{99991D32-B651-4212-8599-661AC8CD5E70}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="61">
   <si>
     <t>Folder</t>
   </si>
@@ -234,6 +234,25 @@
   </si>
   <si>
     <t>Might want to expand script to not only look at 4 hr percentages, but a range of other metrics. Suggest adjusting monte_carlo_table to take full event logs, as in distribution_outputs.csv not only discharge and admission times.</t>
+  </si>
+  <si>
+    <t>It simulates a specific scenario (scenario_name)
+ related to an emergency department, which can include patient arrivals,
+ treatment times, resource allocation (e.g., doctors, beds), 
+and patient flow through different areas of the department (e.g., waiting rooms, treatment rooms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiprocessing Use (Pool): The use of Pool from the multiprocess. aimed at reducing the total computation time for the Monte Carlo simulation. However, the specifics of how many processes are spawned (which depends on the Pool default behavior or system resources) and how it manages the workload aren't  defined.
+pandas.concat with keys=range(runs): suggests that each simulation run's results are kept distinct within the combined DataFrame, potentially for analysis of variability across runs. However, the structure of the data produced by each run (i.e., what metrics or outcomes are recorded) is not specified.
+read_parameters: is interacting with config.json file. which includes thedefault values for different ED types and sizes. </t>
+  </si>
+  <si>
+    <t>Dynamic paramters adjustment: need to implement feature for 
+the simulation to adjust parameters in real-time based on incoming data
+Scenario Analysis: Need to expand the scenario analysis capabilities to include more complex and varied scenarios</t>
+  </si>
+  <si>
+    <t>Santosh - Done</t>
   </si>
 </sst>
 </file>
@@ -619,21 +638,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.6640625" customWidth="1"/>
-    <col min="6" max="6" width="61.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.7109375" customWidth="1"/>
+    <col min="6" max="6" width="61.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -653,7 +672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="302.39999999999998" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="375" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -673,7 +692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -693,7 +712,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="315" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -701,10 +720,19 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -715,7 +743,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -726,7 +754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -746,12 +774,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>38</v>
       </c>
@@ -762,17 +790,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>42</v>
       </c>
@@ -780,17 +808,17 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>46</v>
       </c>
@@ -798,7 +826,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -809,7 +837,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -820,7 +848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -831,7 +859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -842,7 +870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -853,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>29</v>
       </c>
@@ -873,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -893,7 +921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -901,7 +929,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>9</v>
       </c>
